--- a/esg_scores.xlsx
+++ b/esg_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mokdarren/Repos/fin4719-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC797951-5504-6C4C-AFB0-E2913DD0BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD0CFCC-5A95-9D49-8141-D58BC9467159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="27800" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3486,9 +3486,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E506"/>
+  <dimension ref="A1:F506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3498,7 +3500,7 @@
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1017</v>
       </c>
@@ -3513,7049 +3515,7552 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>515</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>53.374969319067297</v>
+      <c r="C2" s="2">
+        <v>53.37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>516</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>70.4016356411706</v>
+      <c r="C3" s="2">
+        <v>70.400000000000006</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>517</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <v>70.693852813313498</v>
+      <c r="C4" s="2">
+        <v>70.69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>518</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>25.041170238074599</v>
+      <c r="C5" s="2">
+        <v>25.04</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>519</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
-        <v>64.462918269143898</v>
+      <c r="C6" s="2">
+        <v>64.459999999999994</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>520</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
-        <v>78.881390658126406</v>
+      <c r="C7" s="2">
+        <v>78.88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>521</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
-        <v>63.400886676579901</v>
+      <c r="C8" s="2">
+        <v>63.4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>522</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>81.610004090772406</v>
+      <c r="C9" s="2">
+        <v>81.61</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>523</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>50.290289421209103</v>
+      <c r="C10" s="2">
+        <v>50.29</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>524</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
-        <v>68.511961335905696</v>
+      <c r="C11" s="2">
+        <v>68.510000000000005</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>525</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>78.095001176554405</v>
+      <c r="C12" s="2">
+        <v>78.09</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>526</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
-        <v>68.584564501716898</v>
+      <c r="C13" s="2">
+        <v>68.58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>527</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
-        <v>59.4144807460587</v>
+      <c r="C14" s="2">
+        <v>59.41</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>528</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
-        <v>78.844606965839603</v>
+      <c r="C15" s="2">
+        <v>78.84</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>529</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
-        <v>42.002994537034297</v>
+      <c r="C16" s="2">
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>530</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3">
-        <v>71.201194497970505</v>
+      <c r="C17" s="2">
+        <v>71.2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>531</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3">
-        <v>76.007877715638102</v>
+      <c r="C18" s="2">
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>532</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3">
-        <v>45.751968576871</v>
+      <c r="C19" s="2">
+        <v>45.75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>533</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3">
-        <v>75.973968476964203</v>
+      <c r="C20" s="2">
+        <v>75.97</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>534</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3">
-        <v>48.458639331691202</v>
+      <c r="C21" s="2">
+        <v>48.45</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>535</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3">
-        <v>74.969193110044301</v>
+      <c r="C22" s="2">
+        <v>74.959999999999994</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3">
-        <v>71.789119552261198</v>
+      <c r="C23" s="2">
+        <v>71.78</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>537</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3">
-        <v>74.280996743797601</v>
+      <c r="C24" s="2">
+        <v>74.28</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>538</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3">
-        <v>44.523807306928703</v>
+      <c r="C25" s="2">
+        <v>44.52</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>539</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="3">
-        <v>62.937057599870798</v>
+      <c r="C26" s="2">
+        <v>62.93</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>540</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3">
-        <v>72.987305962322097</v>
+      <c r="C27" s="2">
+        <v>72.98</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>541</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3">
-        <v>77.498947623259497</v>
+      <c r="C28" s="2">
+        <v>77.489999999999995</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>542</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3">
-        <v>82.356870732448996</v>
+      <c r="C29" s="2">
+        <v>82.35</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>543</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3">
-        <v>36.107005494369297</v>
+      <c r="C30" s="2">
+        <v>36.1</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>544</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3">
-        <v>77.633849186709895</v>
+      <c r="C31" s="2">
+        <v>77.63</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>545</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3">
-        <v>84.337112203369799</v>
+      <c r="C32" s="2">
+        <v>84.33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>546</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3">
-        <v>71.273922040976601</v>
+      <c r="C33" s="2">
+        <v>71.27</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>547</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="3">
-        <v>76.065211271468698</v>
+      <c r="C34" s="2">
+        <v>76.06</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>548</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3">
-        <v>57.998218764381797</v>
+      <c r="C35" s="2">
+        <v>57.99</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>549</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="3">
-        <v>57.3249404759393</v>
+      <c r="C36" s="2">
+        <v>57.32</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>550</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="3">
-        <v>85.713068672236602</v>
+      <c r="C37" s="2">
+        <v>85.71</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>551</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="3">
-        <v>69.039661019318601</v>
+      <c r="C38" s="2">
+        <v>69.03</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>552</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="3">
-        <v>77.994839514437601</v>
+      <c r="C39" s="2">
+        <v>77.989999999999995</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>553</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="3">
-        <v>72.596505576252795</v>
+      <c r="C40" s="2">
+        <v>72.59</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>554</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="3">
-        <v>78.548907416906005</v>
+      <c r="C41" s="2">
+        <v>78.540000000000006</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>555</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="3">
-        <v>55.550408523109098</v>
+      <c r="C42" s="2">
+        <v>55.55</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>556</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="3">
-        <v>25.134701426282501</v>
+      <c r="C43" s="2">
+        <v>25.13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>557</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="3">
-        <v>78.517457906201003</v>
+      <c r="C44" s="2">
+        <v>78.510000000000005</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>558</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="3">
-        <v>42.878764563414599</v>
+      <c r="C45" s="2">
+        <v>42.87</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>559</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="3">
-        <v>83.301693663694394</v>
+      <c r="C46" s="2">
+        <v>83.3</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="3">
-        <v>51.939757237462203</v>
+      <c r="C47" s="2">
+        <v>51.93</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>561</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="3">
-        <v>80.909478025711707</v>
+      <c r="C48" s="2">
+        <v>80.900000000000006</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>562</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="3">
-        <v>81.837199619506904</v>
+      <c r="C49" s="2">
+        <v>81.83</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>563</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="3">
-        <v>60.341798568155298</v>
+      <c r="C50" s="2">
+        <v>60.34</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>564</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="3">
-        <v>74.049655428472803</v>
+      <c r="C51" s="2">
+        <v>74.040000000000006</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="3">
-        <v>50.067495682441901</v>
+      <c r="C52" s="2">
+        <v>50.06</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>566</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="3">
-        <v>52.1385628288334</v>
+      <c r="C53" s="2">
+        <v>52.13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>567</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="3">
-        <v>89.076390537764794</v>
+      <c r="C54" s="2">
+        <v>89.07</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>568</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="3">
-        <v>32.589800632754603</v>
+      <c r="C55" s="2">
+        <v>32.58</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>569</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="3">
-        <v>83.584563872743601</v>
+      <c r="C56" s="2">
+        <v>83.58</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>570</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="3">
-        <v>79.196918264941999</v>
+      <c r="C57" s="2">
+        <v>79.19</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>571</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="3">
-        <v>39.727708497383297</v>
+      <c r="C58" s="2">
+        <v>39.72</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>572</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="3">
-        <v>58.774378305356599</v>
+      <c r="C59" s="2">
+        <v>58.77</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>573</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="3">
-        <v>69.116885893823095</v>
+      <c r="C60" s="2">
+        <v>69.11</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>574</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="3">
-        <v>82.893093905192103</v>
+      <c r="C61" s="2">
+        <v>82.89</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="3">
-        <v>72.167150303096193</v>
+      <c r="C62" s="2">
+        <v>72.16</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>576</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="3">
-        <v>42.881780318573803</v>
+      <c r="C63" s="2">
+        <v>42.88</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>577</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="3">
-        <v>81.793598015085493</v>
+      <c r="C64" s="2">
+        <v>81.790000000000006</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>578</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="3">
-        <v>84.416871551199606</v>
+      <c r="C65" s="2">
+        <v>84.41</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>579</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="3">
-        <v>68.980462964368201</v>
+      <c r="C66" s="2">
+        <v>68.98</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>580</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="3">
-        <v>47.377767032755401</v>
+      <c r="C67" s="2">
+        <v>47.37</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="3">
-        <v>88.030195295692096</v>
+      <c r="C68" s="2">
+        <v>88.03</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>582</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="3">
-        <v>67.682358952531501</v>
+      <c r="C69" s="2">
+        <v>67.680000000000007</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>583</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="3">
-        <v>45.7219171843685</v>
+      <c r="C70" s="2">
+        <v>45.72</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>584</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="3">
-        <v>67.088529781822103</v>
+      <c r="C71" s="2">
+        <v>67.08</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>585</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="3">
-        <v>76.3988717902199</v>
+      <c r="C72" s="2">
+        <v>76.39</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>586</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="3">
-        <v>84.434422750204604</v>
+      <c r="C73" s="2">
+        <v>84.43</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>587</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="3">
-        <v>62.393495059243001</v>
+      <c r="C74" s="2">
+        <v>62.39</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>588</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="3">
-        <v>69.627408196413896</v>
+      <c r="C75" s="2">
+        <v>69.62</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>589</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="3">
-        <v>66.238835913000699</v>
+      <c r="C76" s="2">
+        <v>66.23</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="3">
-        <v>63.095275968429</v>
+      <c r="C77" s="2">
+        <v>63.09</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>591</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="3">
-        <v>57.319589493167499</v>
+      <c r="C78" s="2">
+        <v>57.31</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>592</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="3">
-        <v>60.538647068887599</v>
+      <c r="C79" s="2">
+        <v>60.53</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>593</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="3">
-        <v>34.649147764186097</v>
+      <c r="C80" s="2">
+        <v>34.64</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>594</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="3">
-        <v>57.384513231392603</v>
+      <c r="C81" s="2">
+        <v>57.38</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>595</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="3">
-        <v>69.343655676825804</v>
+      <c r="C82" s="2">
+        <v>69.34</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>596</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="3">
-        <v>42.690071065254699</v>
+      <c r="C83" s="2">
+        <v>42.69</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>597</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="3">
-        <v>80.761385813747196</v>
+      <c r="C84" s="2">
+        <v>80.760000000000005</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>598</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="3">
-        <v>80.831226773754906</v>
+      <c r="C85" s="2">
+        <v>80.83</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>599</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="3">
-        <v>46.834829223746603</v>
+      <c r="C86" s="2">
+        <v>46.83</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="3">
-        <v>79.690511945304294</v>
+      <c r="C87" s="2">
+        <v>79.69</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="3">
-        <v>72.199661427760802</v>
+      <c r="C88" s="2">
+        <v>72.19</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>602</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="3">
-        <v>63.103979307160202</v>
+      <c r="C89" s="2">
+        <v>63.1</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>603</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="3">
-        <v>71.657584305695195</v>
+      <c r="C90" s="2">
+        <v>71.650000000000006</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>604</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="3">
-        <v>61.250009717422998</v>
+      <c r="C91" s="2">
+        <v>61.25</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="3">
-        <v>75.451231933867007</v>
+      <c r="C92" s="2">
+        <v>75.45</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>605</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="3">
-        <v>58.579520303757597</v>
+      <c r="C93" s="2">
+        <v>58.57</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>606</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="3">
-        <v>66.325988002582704</v>
+      <c r="C94" s="2">
+        <v>66.319999999999993</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>607</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="3">
-        <v>41.260152681873898</v>
+      <c r="C95" s="2">
+        <v>41.26</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>608</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="3">
-        <v>80.241762481944093</v>
+      <c r="C96" s="2">
+        <v>80.239999999999995</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>609</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="3">
-        <v>70.103462824452095</v>
+      <c r="C97" s="2">
+        <v>70.099999999999994</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>610</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="3">
-        <v>78.774337288426395</v>
+      <c r="C98" s="2">
+        <v>78.77</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>611</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="3">
-        <v>85.450727589458594</v>
+      <c r="C99" s="2">
+        <v>85.45</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>612</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="3">
-        <v>58.634006035323502</v>
+      <c r="C100" s="2">
+        <v>58.63</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>613</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="3">
-        <v>71.302656148917507</v>
+      <c r="C101" s="2">
+        <v>71.3</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>614</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="3">
-        <v>52.834766470605103</v>
+      <c r="C102" s="2">
+        <v>52.83</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>615</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="3">
-        <v>56.605197081681098</v>
+      <c r="C103" s="2">
+        <v>56.6</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>616</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="3">
-        <v>46.323023987710599</v>
+      <c r="C104" s="2">
+        <v>46.32</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>617</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="3">
-        <v>59.009272889231397</v>
+      <c r="C105" s="2">
+        <v>59</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>618</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="3">
-        <v>52.607868299740304</v>
+      <c r="C106" s="2">
+        <v>52.6</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>619</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="3">
-        <v>55.4307199013504</v>
+      <c r="C107" s="2">
+        <v>55.43</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>620</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="3">
-        <v>71.524299388642206</v>
+      <c r="C108" s="2">
+        <v>71.52</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>621</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="3">
-        <v>65.8752567982486</v>
+      <c r="C109" s="2">
+        <v>65.87</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>622</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="3">
-        <v>74.353486258570896</v>
+      <c r="C110" s="2">
+        <v>74.349999999999994</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>623</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="3">
-        <v>39.300000827876801</v>
+      <c r="C111" s="2">
+        <v>39.299999999999997</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>624</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="3">
-        <v>74.390191422301896</v>
+      <c r="C112" s="2">
+        <v>74.39</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>625</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="3">
-        <v>72.012034551500705</v>
+      <c r="C113" s="2">
+        <v>72.010000000000005</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>626</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="3">
-        <v>74.566836708306298</v>
+      <c r="C114" s="2">
+        <v>74.56</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>627</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="3">
-        <v>36.7645922036371</v>
+      <c r="C115" s="2">
+        <v>36.76</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>628</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="3">
-        <v>69.314160271558293</v>
+      <c r="C116" s="2">
+        <v>69.31</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>629</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="3">
-        <v>56.690413969543698</v>
+      <c r="C117" s="2">
+        <v>56.69</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>630</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="3">
-        <v>80.7366360306263</v>
+      <c r="C118" s="2">
+        <v>80.73</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="3">
-        <v>52.542214905729999</v>
+      <c r="C119" s="2">
+        <v>52.54</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="3">
-        <v>66.694387384481104</v>
+      <c r="C120" s="2">
+        <v>66.69</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="3">
-        <v>63.294868642264298</v>
+      <c r="C121" s="2">
+        <v>63.29</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="3">
-        <v>75.370432273131598</v>
+      <c r="C122" s="2">
+        <v>75.37</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C123" s="3">
-        <v>74.631963195276597</v>
+      <c r="C123" s="2">
+        <v>74.63</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>636</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C124" s="3">
-        <v>45.399460978518597</v>
+      <c r="C124" s="2">
+        <v>45.39</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>637</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C125" s="3">
-        <v>76.251731500275199</v>
+      <c r="C125" s="2">
+        <v>76.25</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>638</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C126" s="3">
-        <v>74.437221181437494</v>
+      <c r="C126" s="2">
+        <v>74.430000000000007</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>639</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="3">
-        <v>88.736586523005698</v>
+      <c r="C127" s="2">
+        <v>88.73</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>640</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="3">
-        <v>65.999912723995806</v>
+      <c r="C128" s="2">
+        <v>65.989999999999995</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>641</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="3">
-        <v>77.498487012128194</v>
+      <c r="C129" s="2">
+        <v>77.489999999999995</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>642</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="3">
-        <v>75.479435522589299</v>
+      <c r="C130" s="2">
+        <v>75.47</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>643</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="3">
-        <v>87.698170548901601</v>
+      <c r="C131" s="2">
+        <v>87.69</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>644</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="3">
-        <v>63.317865928988297</v>
+      <c r="C132" s="2">
+        <v>63.31</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>645</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C133" s="3">
-        <v>26.704442640003901</v>
+      <c r="C133" s="2">
+        <v>26.7</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>646</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="3">
-        <v>79.889456215961303</v>
+      <c r="C134" s="2">
+        <v>79.88</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>647</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="3">
-        <v>80.382716883139096</v>
+      <c r="C135" s="2">
+        <v>80.38</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="3">
-        <v>77.688389725706699</v>
+      <c r="C136" s="2">
+        <v>77.680000000000007</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>649</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="3">
-        <v>68.624333073822797</v>
+      <c r="C137" s="2">
+        <v>68.62</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>650</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="3">
-        <v>68.072404083339606</v>
+      <c r="C138" s="2">
+        <v>68.069999999999993</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>651</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="3">
-        <v>78.798998466633506</v>
+      <c r="C139" s="2">
+        <v>78.790000000000006</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>652</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="3">
-        <v>86.588003986524598</v>
+      <c r="C140" s="2">
+        <v>86.58</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>653</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="3">
-        <v>56.517364961522198</v>
+      <c r="C141" s="2">
+        <v>56.51</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>654</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="3">
-        <v>64.330272017909493</v>
+      <c r="C142" s="2">
+        <v>64.33</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>655</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="3">
-        <v>78.209564331024396</v>
+      <c r="C143" s="2">
+        <v>78.2</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>656</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="3">
-        <v>68.102284701695396</v>
+      <c r="C144" s="2">
+        <v>68.099999999999994</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>657</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="3">
-        <v>53.682653384888702</v>
+      <c r="C145" s="2">
+        <v>53.68</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>658</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C146" s="3">
-        <v>63.7009705041107</v>
+      <c r="C146" s="2">
+        <v>63.7</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>659</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="3">
-        <v>66.084170291584101</v>
+      <c r="C147" s="2">
+        <v>66.08</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>660</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="3">
-        <v>67.554574838600104</v>
+      <c r="C148" s="2">
+        <v>67.55</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>661</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C149" s="3">
-        <v>77.821060162650994</v>
+      <c r="C149" s="2">
+        <v>77.819999999999993</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>662</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C150" s="3">
-        <v>88.429810689257593</v>
+      <c r="C150" s="2">
+        <v>88.42</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>663</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="3">
-        <v>73.494271657727694</v>
+      <c r="C151" s="2">
+        <v>73.489999999999995</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>664</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="3">
-        <v>83.073835337874499</v>
+      <c r="C152" s="2">
+        <v>83.07</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>665</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C153" s="3">
-        <v>63.973789724973201</v>
+      <c r="C153" s="2">
+        <v>63.97</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>666</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C154" s="3">
-        <v>59.687765304507003</v>
+      <c r="C154" s="2">
+        <v>59.68</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>667</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C155" s="3">
-        <v>76.0393093627914</v>
+      <c r="C155" s="2">
+        <v>76.03</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>668</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C156" s="3">
-        <v>85.107178963420395</v>
+      <c r="C156" s="2">
+        <v>85.1</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>669</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="3">
-        <v>89.623836853480597</v>
+      <c r="C157" s="2">
+        <v>89.62</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>670</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C158" s="3">
-        <v>53.591388229657198</v>
+      <c r="C158" s="2">
+        <v>53.59</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>671</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C159" s="3">
-        <v>83.445710811017193</v>
+      <c r="C159" s="2">
+        <v>83.44</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>672</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C160" s="3">
-        <v>64.751544243855705</v>
+      <c r="C160" s="2">
+        <v>64.75</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>673</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C161" s="3">
-        <v>75.543886860609902</v>
+      <c r="C161" s="2">
+        <v>75.540000000000006</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>674</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C162" s="3">
-        <v>76.449915443650397</v>
+      <c r="C162" s="2">
+        <v>76.44</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>675</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C163" s="3">
-        <v>81.116547060596702</v>
+      <c r="C163" s="2">
+        <v>81.11</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>676</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C164" s="3">
-        <v>69.566013794787395</v>
+      <c r="C164" s="2">
+        <v>69.56</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>677</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C165" s="3">
-        <v>68.374343768474404</v>
+      <c r="C165" s="2">
+        <v>68.37</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>678</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C166" s="3">
-        <v>65.308488765406096</v>
+      <c r="C166" s="2">
+        <v>65.3</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>679</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C167" s="3">
-        <v>24.095827504962099</v>
+      <c r="C167" s="2">
+        <v>24.09</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>680</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C168" s="3">
-        <v>68.4447288287448</v>
+      <c r="C168" s="2">
+        <v>68.44</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>681</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C169" s="3">
-        <v>56.145080060005903</v>
+      <c r="C169" s="2">
+        <v>56.14</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>682</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C170" s="3">
-        <v>59.934917663718402</v>
+      <c r="C170" s="2">
+        <v>59.93</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>683</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C171" s="3">
-        <v>72.219353065984606</v>
+      <c r="C171" s="2">
+        <v>72.209999999999994</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>684</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C172" s="3">
-        <v>37.8984163016355</v>
+      <c r="C172" s="2">
+        <v>37.89</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>685</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C173" s="3">
-        <v>85.425894020521696</v>
+      <c r="C173" s="2">
+        <v>85.42</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>686</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C174" s="3">
-        <v>37.517406331081297</v>
+      <c r="C174" s="2">
+        <v>37.51</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>687</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C175" s="3">
-        <v>57.853478189429701</v>
+      <c r="C175" s="2">
+        <v>57.85</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>688</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C176" s="3">
-        <v>52.059893005149199</v>
+      <c r="C176" s="2">
+        <v>52.05</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C177" s="3">
-        <v>81.810622870475797</v>
+      <c r="C177" s="2">
+        <v>81.81</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C178" s="3">
-        <v>40.666881604006498</v>
+      <c r="C178" s="2">
+        <v>40.659999999999997</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C179" s="3">
-        <v>67.933673741899895</v>
+      <c r="C179" s="2">
+        <v>67.930000000000007</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>692</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C180" s="3">
-        <v>68.022832454882305</v>
+      <c r="C180" s="2">
+        <v>68.02</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C181" s="3">
-        <v>74.674816028145202</v>
+      <c r="C181" s="2">
+        <v>74.67</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>694</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C182" s="3">
-        <v>88.069794167080104</v>
+      <c r="C182" s="2">
+        <v>88.06</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>695</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C183" s="3">
-        <v>60.763783809548499</v>
+      <c r="C183" s="2">
+        <v>60.76</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>696</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C184" s="3">
-        <v>62.341135230042099</v>
+      <c r="C184" s="2">
+        <v>62.34</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>697</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C185" s="3">
-        <v>70.336679079574495</v>
+      <c r="C185" s="2">
+        <v>70.33</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>698</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C186" s="3">
-        <v>93.603076676102404</v>
+      <c r="C186" s="2">
+        <v>93.6</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>699</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C187" s="3">
-        <v>62.128355675157103</v>
+      <c r="C187" s="2">
+        <v>62.12</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>700</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C188" s="3">
-        <v>69.227180948056002</v>
+      <c r="C188" s="2">
+        <v>69.22</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>701</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C189" s="3">
-        <v>67.818473031681094</v>
+      <c r="C189" s="2">
+        <v>67.81</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>702</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C190" s="3">
-        <v>91.746563404723901</v>
+      <c r="C190" s="2">
+        <v>91.74</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>703</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C191" s="3">
-        <v>59.200223385055097</v>
+      <c r="C191" s="2">
+        <v>59.2</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>704</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C192" s="3">
-        <v>61.143684033311203</v>
+      <c r="C192" s="2">
+        <v>61.14</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>705</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C193" s="3">
-        <v>62.827480728374901</v>
+      <c r="C193" s="2">
+        <v>62.82</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>706</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C194" s="3">
-        <v>69.156182603261399</v>
+      <c r="C194" s="2">
+        <v>69.150000000000006</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>707</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C195" s="3">
-        <v>25.6409076409604</v>
+      <c r="C195" s="2">
+        <v>25.64</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>708</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C196" s="3">
-        <v>65.425667671832898</v>
+      <c r="C196" s="2">
+        <v>65.42</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>709</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C197" s="3">
-        <v>86.177064219638893</v>
+      <c r="C197" s="2">
+        <v>86.17</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>710</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C198" s="3">
-        <v>74.503065004666794</v>
+      <c r="C198" s="2">
+        <v>74.5</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>711</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C199" s="3">
-        <v>58.802698276610599</v>
+      <c r="C199" s="2">
+        <v>58.8</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>712</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C200" s="3">
-        <v>64.160367989978099</v>
+      <c r="C200" s="2">
+        <v>64.16</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>713</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C201" s="3">
-        <v>69.863512206902996</v>
+      <c r="C201" s="2">
+        <v>69.86</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>714</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C202" s="3">
-        <v>82.209891347488707</v>
+      <c r="C202" s="2">
+        <v>82.2</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>715</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C203" s="3">
-        <v>61.867781646210297</v>
+      <c r="C203" s="2">
+        <v>61.86</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>716</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C204" s="3">
-        <v>78.770539856812604</v>
+      <c r="C204" s="2">
+        <v>78.77</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>717</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C205" s="3">
-        <v>69.9483235405052</v>
+      <c r="C205" s="2">
+        <v>69.94</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>718</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C206" s="3">
-        <v>45.5297962871472</v>
+      <c r="C206" s="2">
+        <v>45.52</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>719</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C207" s="3">
-        <v>76.169303770993906</v>
+      <c r="C207" s="2">
+        <v>76.16</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>720</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C208" s="3">
-        <v>35.781822509059097</v>
+      <c r="C208" s="2">
+        <v>35.78</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>721</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C209" s="3">
-        <v>67.606677655385695</v>
+      <c r="C209" s="2">
+        <v>67.599999999999994</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>722</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C210" s="3">
-        <v>69.914185899005105</v>
+      <c r="C210" s="2">
+        <v>69.91</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>723</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C211" s="3">
-        <v>54.613102942190203</v>
+      <c r="C211" s="2">
+        <v>54.61</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>724</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C212" s="3">
-        <v>35.582673429181099</v>
+      <c r="C212" s="2">
+        <v>35.58</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>725</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C213" s="3">
-        <v>49.391198128564199</v>
+      <c r="C213" s="2">
+        <v>49.39</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>726</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C214" s="3">
-        <v>77.754016304583203</v>
+      <c r="C214" s="2">
+        <v>77.75</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>727</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C215" s="3">
-        <v>54.854073525965397</v>
+      <c r="C215" s="2">
+        <v>54.85</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>728</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C216" s="3">
-        <v>80.419636415485996</v>
+      <c r="C216" s="2">
+        <v>80.41</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>729</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C217" s="3">
-        <v>67.603552159212896</v>
+      <c r="C217" s="2">
+        <v>67.599999999999994</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>730</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C218" s="3">
-        <v>42.457911461201</v>
+      <c r="C218" s="2">
+        <v>42.45</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>731</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C219" s="3">
-        <v>59.349022280385199</v>
+      <c r="C219" s="2">
+        <v>59.34</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>732</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C220" s="3">
-        <v>56.072905422685501</v>
+      <c r="C220" s="2">
+        <v>56.07</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>733</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C221" s="3">
-        <v>55.933177467172797</v>
+      <c r="C221" s="2">
+        <v>55.93</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>734</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C222" s="3">
-        <v>37.766175067984101</v>
+      <c r="C222" s="2">
+        <v>37.76</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>735</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C223" s="3">
-        <v>88.522761299604298</v>
+      <c r="C223" s="2">
+        <v>88.52</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>736</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C224" s="3">
-        <v>63.4962096359721</v>
+      <c r="C224" s="2">
+        <v>63.49</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>737</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C225" s="3">
-        <v>80.378575315859095</v>
+      <c r="C225" s="2">
+        <v>80.37</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>738</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C226" s="3">
-        <v>65.113926827477997</v>
+      <c r="C226" s="2">
+        <v>65.11</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>739</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C227" s="3">
-        <v>80.407164792735799</v>
+      <c r="C227" s="2">
+        <v>80.400000000000006</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>740</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C228" s="3">
-        <v>62.515305142006902</v>
+      <c r="C228" s="2">
+        <v>62.51</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>741</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C229" s="3">
-        <v>53.415004015186597</v>
+      <c r="C229" s="2">
+        <v>53.41</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>742</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C230" s="3">
-        <v>49.3733178381624</v>
+      <c r="C230" s="2">
+        <v>49.37</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>743</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C231" s="3">
-        <v>73.129159673919901</v>
+      <c r="C231" s="2">
+        <v>73.12</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>744</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C232" s="3">
-        <v>51.619645770119099</v>
+      <c r="C232" s="2">
+        <v>51.61</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>745</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C233" s="3">
-        <v>66.038801346565904</v>
+      <c r="C233" s="2">
+        <v>66.03</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>746</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C234" s="3">
-        <v>69.347557728720403</v>
+      <c r="C234" s="2">
+        <v>69.34</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>747</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C235" s="3">
-        <v>54.165450403167902</v>
+      <c r="C235" s="2">
+        <v>54.16</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>748</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C236" s="3">
-        <v>66.7634162914661</v>
+      <c r="C236" s="2">
+        <v>66.760000000000005</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>749</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C237" s="3">
-        <v>39.382466968735102</v>
+      <c r="C237" s="2">
+        <v>39.380000000000003</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>750</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C238" s="3">
-        <v>46.498516678052297</v>
+      <c r="C238" s="2">
+        <v>46.49</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>751</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C239" s="3">
-        <v>78.495034047268405</v>
+      <c r="C239" s="2">
+        <v>78.489999999999995</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>752</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C240" s="3">
-        <v>63.308352083008899</v>
+      <c r="C240" s="2">
+        <v>63.3</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>753</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C241" s="3">
-        <v>69.782570260220496</v>
+      <c r="C241" s="2">
+        <v>69.78</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>754</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C242" s="3">
-        <v>68.136951933156297</v>
+      <c r="C242" s="2">
+        <v>68.13</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>755</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C243" s="3">
-        <v>73.261192615849495</v>
+      <c r="C243" s="2">
+        <v>73.260000000000005</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>756</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C244" s="3">
-        <v>63.668543423135901</v>
+      <c r="C244" s="2">
+        <v>63.66</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>757</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C245" s="3">
-        <v>8.0541158662253505</v>
+      <c r="C245" s="2">
+        <v>8.0540000000000003</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>758</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C246" s="3">
-        <v>60.647616375770099</v>
+      <c r="C246" s="2">
+        <v>60.64</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>759</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C247" s="3">
-        <v>59.887920824071301</v>
+      <c r="C247" s="2">
+        <v>59.88</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>760</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C248" s="3">
-        <v>71.864615929467007</v>
+      <c r="C248" s="2">
+        <v>71.86</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>761</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C249" s="3">
-        <v>66.8433337803406</v>
+      <c r="C249" s="2">
+        <v>66.84</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>762</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C250" s="3">
-        <v>70.078040950214003</v>
+      <c r="C250" s="2">
+        <v>70.069999999999993</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>763</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C251" s="3">
-        <v>75.377540869208104</v>
+      <c r="C251" s="2">
+        <v>75.37</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>764</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C252" s="3">
-        <v>52.691648969751903</v>
+      <c r="C252" s="2">
+        <v>52.69</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>765</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C253" s="3">
-        <v>57.941440658293899</v>
+      <c r="C253" s="2">
+        <v>57.94</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>766</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C254" s="3">
-        <v>73.307758733268699</v>
+      <c r="C254" s="2">
+        <v>73.3</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>767</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C255" s="3">
-        <v>77.237551157750801</v>
+      <c r="C255" s="2">
+        <v>77.23</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>768</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C256" s="3">
-        <v>41.274620155079397</v>
+      <c r="C256" s="2">
+        <v>41.27</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>769</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C257" s="3">
-        <v>68.924589491554201</v>
+      <c r="C257" s="2">
+        <v>68.92</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>770</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C258" s="3">
-        <v>53.989860442751798</v>
+      <c r="C258" s="2">
+        <v>53.98</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>771</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C259" s="3">
-        <v>39.1066346981926</v>
+      <c r="C259" s="2">
+        <v>39.1</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>772</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C260" s="3">
-        <v>68.774883802772294</v>
+      <c r="C260" s="2">
+        <v>68.77</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>773</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C261" s="3">
-        <v>68.029396269779397</v>
+      <c r="C261" s="2">
+        <v>68.02</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>774</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C262" s="3">
-        <v>72.549924914992403</v>
+      <c r="C262" s="2">
+        <v>72.540000000000006</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>775</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C263" s="3">
-        <v>53.638897173007202</v>
+      <c r="C263" s="2">
+        <v>53.63</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>776</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C264" s="3">
-        <v>68.378417958318096</v>
+      <c r="C264" s="2">
+        <v>68.37</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>777</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C265" s="3">
-        <v>88.752781242032597</v>
+      <c r="C265" s="2">
+        <v>88.75</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>778</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C266" s="3">
-        <v>77.142519183663595</v>
+      <c r="C266" s="2">
+        <v>77.14</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>779</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C267" s="3">
-        <v>80.127088026644401</v>
+      <c r="C267" s="2">
+        <v>80.12</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>780</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C268" s="3">
-        <v>66.042572561919499</v>
+      <c r="C268" s="2">
+        <v>66.040000000000006</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>781</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C269" s="3">
-        <v>69.649746536587102</v>
+      <c r="C269" s="2">
+        <v>69.64</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>782</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C270" s="3">
-        <v>67.221324559255606</v>
+      <c r="C270" s="2">
+        <v>67.22</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>783</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C271" s="3">
-        <v>58.811168544398299</v>
+      <c r="C271" s="2">
+        <v>58.81</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>784</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C272" s="3">
-        <v>65.813674208316598</v>
+      <c r="C272" s="2">
+        <v>65.81</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>785</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C273" s="3">
-        <v>44.419634707783104</v>
+      <c r="C273" s="2">
+        <v>44.41</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>786</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C274" s="3">
-        <v>84.282473485327003</v>
+      <c r="C274" s="2">
+        <v>84.28</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>787</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C275" s="3">
-        <v>72.036940048819204</v>
+      <c r="C275" s="2">
+        <v>72.03</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>788</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C276" s="3">
-        <v>67.638567338608993</v>
+      <c r="C276" s="2">
+        <v>67.63</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>789</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C277" s="3">
-        <v>45.412926240744397</v>
+      <c r="C277" s="2">
+        <v>45.41</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>790</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C278" s="3">
-        <v>59.8072767992441</v>
+      <c r="C278" s="2">
+        <v>59.8</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>791</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C279" s="3">
-        <v>75.561901365804701</v>
+      <c r="C279" s="2">
+        <v>75.56</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C280" s="3">
-        <v>85.871053327878798</v>
+      <c r="C280" s="2">
+        <v>85.87</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>792</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C281" s="3">
-        <v>78.765148321298199</v>
+      <c r="C281" s="2">
+        <v>78.760000000000005</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>793</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C282" s="3">
-        <v>50.942544799192497</v>
+      <c r="C282" s="2">
+        <v>50.94</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>794</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C283" s="3">
-        <v>62.8429672743559</v>
+      <c r="C283" s="2">
+        <v>62.84</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>795</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C284" s="3">
-        <v>65.367277619274404</v>
+      <c r="C284" s="2">
+        <v>65.36</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>796</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C285" s="3">
-        <v>87.0714414494159</v>
+      <c r="C285" s="2">
+        <v>87.07</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>797</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C286" s="3">
-        <v>76.056352020296202</v>
+      <c r="C286" s="2">
+        <v>76.05</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>798</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C287" s="3">
-        <v>59.878359767743497</v>
+      <c r="C287" s="2">
+        <v>59.87</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>799</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C288" s="3">
-        <v>72.383066899004604</v>
+      <c r="C288" s="2">
+        <v>72.38</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>800</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C289" s="3">
-        <v>71.056784036049805</v>
+      <c r="C289" s="2">
+        <v>71.05</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>801</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C290" s="3">
-        <v>34.741033495482199</v>
+      <c r="C290" s="2">
+        <v>34.74</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>802</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C291" s="3">
-        <v>71.853340931675604</v>
+      <c r="C291" s="2">
+        <v>71.849999999999994</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>803</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C292" s="3">
-        <v>68.532385221391806</v>
+      <c r="C292" s="2">
+        <v>68.53</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>804</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C293" s="3">
-        <v>82.498889612188407</v>
+      <c r="C293" s="2">
+        <v>82.49</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>805</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C294" s="3">
-        <v>52.072790607181702</v>
+      <c r="C294" s="2">
+        <v>52.07</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>806</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C295" s="3">
-        <v>61.154709218228</v>
+      <c r="C295" s="2">
+        <v>61.15</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>807</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C296" s="3">
-        <v>61.931784181313198</v>
+      <c r="C296" s="2">
+        <v>61.93</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>808</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C297" s="3">
-        <v>41.420778151256798</v>
+      <c r="C297" s="2">
+        <v>41.42</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F297" s="2"/>
+    </row>
+    <row r="298" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>809</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C298" s="3">
-        <v>82.1892247936361</v>
+      <c r="C298" s="2">
+        <v>82.18</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>810</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C299" s="3">
-        <v>94.5083772149992</v>
+      <c r="C299" s="2">
+        <v>94.5</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>811</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C300" s="3">
-        <v>68.533849827189599</v>
+      <c r="C300" s="2">
+        <v>68.53</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>812</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C301" s="3">
-        <v>60.827080973143502</v>
+      <c r="C301" s="2">
+        <v>60.82</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>813</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C302" s="3">
-        <v>41.7542819786091</v>
+      <c r="C302" s="2">
+        <v>41.75</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>814</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C303" s="3">
-        <v>59.602164610576096</v>
+      <c r="C303" s="2">
+        <v>59.6</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>815</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C304" s="3">
-        <v>70.520964834369707</v>
+      <c r="C304" s="2">
+        <v>70.52</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>816</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C305" s="3">
-        <v>77.280818786748895</v>
+      <c r="C305" s="2">
+        <v>77.28</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F305" s="2"/>
+    </row>
+    <row r="306" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>817</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C306" s="3">
-        <v>57.310137781128397</v>
+      <c r="C306" s="2">
+        <v>57.31</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F306" s="2"/>
+    </row>
+    <row r="307" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>818</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C307" s="3">
-        <v>61.534749937103498</v>
+      <c r="C307" s="2">
+        <v>61.53</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F307" s="2"/>
+    </row>
+    <row r="308" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>819</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C308" s="3">
-        <v>42.151723746314303</v>
+      <c r="C308" s="2">
+        <v>42.15</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>820</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C309" s="3">
-        <v>53.098876734701797</v>
+      <c r="C309" s="2">
+        <v>53.09</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F309" s="2"/>
+    </row>
+    <row r="310" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>821</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C310" s="3">
-        <v>57.446587859039496</v>
+      <c r="C310" s="2">
+        <v>57.44</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F310" s="2"/>
+    </row>
+    <row r="311" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>822</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C311" s="3">
-        <v>77.110042104742604</v>
+      <c r="C311" s="2">
+        <v>77.11</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F311" s="2"/>
+    </row>
+    <row r="312" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>823</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C312" s="3">
-        <v>72.256441860034897</v>
+      <c r="C312" s="2">
+        <v>72.25</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>824</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C313" s="3">
-        <v>60.342086075728801</v>
+      <c r="C313" s="2">
+        <v>60.34</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F313" s="2"/>
+    </row>
+    <row r="314" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>825</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C314" s="3">
-        <v>72.907199981941602</v>
+      <c r="C314" s="2">
+        <v>72.900000000000006</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>826</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C315" s="3">
-        <v>56.322354002734102</v>
+      <c r="C315" s="2">
+        <v>56.32</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F315" s="2"/>
+    </row>
+    <row r="316" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>827</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C316" s="3">
-        <v>65.369962589370203</v>
+      <c r="C316" s="2">
+        <v>65.36</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F316" s="2"/>
+    </row>
+    <row r="317" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>828</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C317" s="3">
-        <v>78.483220915158199</v>
+      <c r="C317" s="2">
+        <v>78.48</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>829</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C318" s="3">
-        <v>80.713949622608197</v>
+      <c r="C318" s="2">
+        <v>80.709999999999994</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>830</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C319" s="3">
-        <v>32.024971379143501</v>
+      <c r="C319" s="2">
+        <v>32.020000000000003</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>831</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C320" s="3">
-        <v>68.206217467957003</v>
+      <c r="C320" s="2">
+        <v>68.2</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>832</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C321" s="3">
-        <v>74.868809746481801</v>
+      <c r="C321" s="2">
+        <v>74.86</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>833</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C322" s="3">
-        <v>73.354003349649105</v>
+      <c r="C322" s="2">
+        <v>73.349999999999994</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>834</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C323" s="3">
-        <v>73.442339710249399</v>
+      <c r="C323" s="2">
+        <v>73.44</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>835</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C324" s="3">
-        <v>40.612212613134098</v>
+      <c r="C324" s="2">
+        <v>40.61</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>836</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C325" s="3">
-        <v>19.5382709921548</v>
+      <c r="C325" s="2">
+        <v>19.53</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>837</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C326" s="3">
-        <v>61.049111060283401</v>
+      <c r="C326" s="2">
+        <v>61.04</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>838</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C327" s="3">
-        <v>66.711285219895103</v>
+      <c r="C327" s="2">
+        <v>66.709999999999994</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>839</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C328" s="3">
-        <v>70.370754155369795</v>
+      <c r="C328" s="2">
+        <v>70.37</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>840</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C329" s="3">
-        <v>65.163567678234202</v>
+      <c r="C329" s="2">
+        <v>65.16</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>841</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C330" s="3">
-        <v>52.199070132743898</v>
+      <c r="C330" s="2">
+        <v>52.19</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>842</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C331" s="3">
-        <v>83.652907309563702</v>
+      <c r="C331" s="2">
+        <v>83.65</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>843</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C332" s="3">
-        <v>87.608060252919202</v>
+      <c r="C332" s="2">
+        <v>87.6</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>844</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C333" s="3">
-        <v>32.454052968285097</v>
+      <c r="C333" s="2">
+        <v>32.450000000000003</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>845</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C334" s="3">
-        <v>60.811991627657797</v>
+      <c r="C334" s="2">
+        <v>60.81</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F334" s="2"/>
+    </row>
+    <row r="335" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>846</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C335" s="3">
-        <v>48.201910809744597</v>
+      <c r="C335" s="2">
+        <v>48.2</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F335" s="2"/>
+    </row>
+    <row r="336" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>847</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C336" s="3">
-        <v>52.923703721525698</v>
+      <c r="C336" s="2">
+        <v>52.92</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F336" s="2"/>
+    </row>
+    <row r="337" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>848</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C337" s="3">
-        <v>57.164577974422798</v>
+      <c r="C337" s="2">
+        <v>57.16</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>849</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C338" s="3">
-        <v>63.912664047332399</v>
+      <c r="C338" s="2">
+        <v>63.91</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>850</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C339" s="3">
-        <v>64.606502298976395</v>
+      <c r="C339" s="2">
+        <v>64.599999999999994</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F339" s="2"/>
+    </row>
+    <row r="340" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>851</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C340" s="3">
-        <v>47.295865758570301</v>
+      <c r="C340" s="2">
+        <v>47.29</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F340" s="2"/>
+    </row>
+    <row r="341" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>852</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C341" s="3">
-        <v>86.168540489827194</v>
+      <c r="C341" s="2">
+        <v>86.16</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F341" s="2"/>
+    </row>
+    <row r="342" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>853</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C342" s="3">
-        <v>79.8965034612159</v>
+      <c r="C342" s="2">
+        <v>79.89</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F342" s="2"/>
+    </row>
+    <row r="343" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>854</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C343" s="3">
-        <v>44.558053484025102</v>
+      <c r="C343" s="2">
+        <v>44.55</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F343" s="2"/>
+    </row>
+    <row r="344" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>855</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C344" s="3">
-        <v>73.166157039848798</v>
+      <c r="C344" s="2">
+        <v>73.16</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>856</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C345" s="3">
-        <v>42.281265695587102</v>
+      <c r="C345" s="2">
+        <v>42.28</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F345" s="2"/>
+    </row>
+    <row r="346" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>857</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C346" s="3">
-        <v>68.455166823192002</v>
+      <c r="C346" s="2">
+        <v>68.45</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F346" s="2"/>
+    </row>
+    <row r="347" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>858</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C347" s="3">
-        <v>58.206408103618898</v>
+      <c r="C347" s="2">
+        <v>58.2</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>859</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C348" s="3">
-        <v>76.417539204594902</v>
+      <c r="C348" s="2">
+        <v>76.41</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F348" s="2"/>
+    </row>
+    <row r="349" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
         <v>860</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C349" s="3">
-        <v>42.150948992185398</v>
+      <c r="C349" s="2">
+        <v>42.15</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F349" s="2"/>
+    </row>
+    <row r="350" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>861</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C350" s="3">
-        <v>55.348120803943502</v>
+      <c r="C350" s="2">
+        <v>55.34</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>862</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C351" s="3">
-        <v>41.411991377432003</v>
+      <c r="C351" s="2">
+        <v>41.41</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F351" s="2"/>
+    </row>
+    <row r="352" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>863</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C352" s="3">
-        <v>68.672976798369604</v>
+      <c r="C352" s="2">
+        <v>68.67</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F352" s="2"/>
+    </row>
+    <row r="353" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>864</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C353" s="3">
-        <v>78.130881550349301</v>
+      <c r="C353" s="2">
+        <v>78.13</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F353" s="2"/>
+    </row>
+    <row r="354" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>865</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C354" s="3">
-        <v>64.664904166222499</v>
+      <c r="C354" s="2">
+        <v>64.66</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F354" s="2"/>
+    </row>
+    <row r="355" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C355" s="3">
-        <v>88.580989186827907</v>
+      <c r="C355" s="2">
+        <v>88.58</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F355" s="2"/>
+    </row>
+    <row r="356" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>866</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C356" s="3">
-        <v>72.524140281418298</v>
+      <c r="C356" s="2">
+        <v>72.52</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>867</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C357" s="3">
-        <v>70.584922863318596</v>
+      <c r="C357" s="2">
+        <v>70.58</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F357" s="2"/>
+    </row>
+    <row r="358" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>868</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C358" s="3">
-        <v>60.986281116986703</v>
+      <c r="C358" s="2">
+        <v>60.98</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F358" s="2"/>
+    </row>
+    <row r="359" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>869</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C359" s="3">
-        <v>72.920677780505002</v>
+      <c r="C359" s="2">
+        <v>72.92</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>870</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C360" s="3">
-        <v>8.5664621272669095</v>
+      <c r="C360" s="2">
+        <v>8.5660000000000007</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F360" s="2"/>
+    </row>
+    <row r="361" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>871</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C361" s="3">
-        <v>55.216525574476599</v>
+      <c r="C361" s="2">
+        <v>55.21</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F361" s="2"/>
+    </row>
+    <row r="362" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>872</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C362" s="3">
-        <v>79.3342283532956</v>
+      <c r="C362" s="2">
+        <v>79.33</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F362" s="2"/>
+    </row>
+    <row r="363" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>873</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C363" s="3">
-        <v>39.961499569301203</v>
+      <c r="C363" s="2">
+        <v>39.96</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F363" s="2"/>
+    </row>
+    <row r="364" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>874</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C364" s="3">
-        <v>66.959075830227306</v>
+      <c r="C364" s="2">
+        <v>66.95</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F364" s="2"/>
+    </row>
+    <row r="365" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>875</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C365" s="3">
-        <v>53.412286933605799</v>
+      <c r="C365" s="2">
+        <v>53.41</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F365" s="2"/>
+    </row>
+    <row r="366" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>876</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C366" s="3">
-        <v>57.9533854156412</v>
+      <c r="C366" s="2">
+        <v>57.95</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>877</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C367" s="3">
-        <v>56.017206458438302</v>
+      <c r="C367" s="2">
+        <v>56.01</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F367" s="2"/>
+    </row>
+    <row r="368" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>878</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C368" s="3">
-        <v>57.411136487324498</v>
+      <c r="C368" s="2">
+        <v>57.41</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F368" s="2"/>
+    </row>
+    <row r="369" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
         <v>879</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C369" s="3">
-        <v>70.186913745417399</v>
+      <c r="C369" s="2">
+        <v>70.180000000000007</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F369" s="2"/>
+    </row>
+    <row r="370" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
         <v>880</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C370" s="3">
-        <v>56.401854972452298</v>
+      <c r="C370" s="2">
+        <v>56.4</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F370" s="2"/>
+    </row>
+    <row r="371" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>881</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C371" s="3">
-        <v>61.993564949647102</v>
+      <c r="C371" s="2">
+        <v>61.99</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F371" s="2"/>
+    </row>
+    <row r="372" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>882</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C372" s="3">
-        <v>59.665253414152701</v>
+      <c r="C372" s="2">
+        <v>59.66</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F372" s="2"/>
+    </row>
+    <row r="373" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>883</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C373" s="3">
-        <v>76.428305532497404</v>
+      <c r="C373" s="2">
+        <v>76.42</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F373" s="2"/>
+    </row>
+    <row r="374" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>884</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C374" s="3">
-        <v>90.075980507815501</v>
+      <c r="C374" s="2">
+        <v>90.07</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F374" s="2"/>
+    </row>
+    <row r="375" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>885</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C375" s="3">
-        <v>75.084259373402602</v>
+      <c r="C375" s="2">
+        <v>75.08</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F375" s="2"/>
+    </row>
+    <row r="376" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>886</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C376" s="3">
-        <v>70.2393676554899</v>
+      <c r="C376" s="2">
+        <v>70.23</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F376" s="2"/>
+    </row>
+    <row r="377" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>887</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C377" s="3">
-        <v>63.641794186657499</v>
+      <c r="C377" s="2">
+        <v>63.64</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F377" s="2"/>
+    </row>
+    <row r="378" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>888</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C378" s="3">
-        <v>40.275386037220699</v>
+      <c r="C378" s="2">
+        <v>40.270000000000003</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F378" s="2"/>
+    </row>
+    <row r="379" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>889</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C379" s="3">
-        <v>72.696746264891203</v>
+      <c r="C379" s="2">
+        <v>72.69</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F379" s="2"/>
+    </row>
+    <row r="380" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>890</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C380" s="3">
-        <v>56.828538125866302</v>
+      <c r="C380" s="2">
+        <v>56.82</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F380" s="2"/>
+    </row>
+    <row r="381" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>891</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C381" s="3">
-        <v>58.950062678181503</v>
+      <c r="C381" s="2">
+        <v>58.95</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F381" s="2"/>
+    </row>
+    <row r="382" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
         <v>892</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C382" s="3">
-        <v>53.976859957550502</v>
+      <c r="C382" s="2">
+        <v>53.97</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F382" s="2"/>
+    </row>
+    <row r="383" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>893</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C383" s="3">
-        <v>59.846227374019698</v>
+      <c r="C383" s="2">
+        <v>59.84</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F383" s="2"/>
+    </row>
+    <row r="384" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>894</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C384" s="3">
-        <v>73.1308468065005</v>
+      <c r="C384" s="2">
+        <v>73.13</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F384" s="2"/>
+    </row>
+    <row r="385" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>895</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C385" s="3">
-        <v>28.611599737116801</v>
+      <c r="C385" s="2">
+        <v>28.61</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F385" s="2"/>
+    </row>
+    <row r="386" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>896</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C386" s="3">
-        <v>69.292566904307705</v>
+      <c r="C386" s="2">
+        <v>69.290000000000006</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F386" s="2"/>
+    </row>
+    <row r="387" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>897</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C387" s="3">
-        <v>74.955260030771896</v>
+      <c r="C387" s="2">
+        <v>74.95</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F387" s="2"/>
+    </row>
+    <row r="388" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>898</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C388" s="3">
-        <v>76.228058847257998</v>
+      <c r="C388" s="2">
+        <v>76.22</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F388" s="2"/>
+    </row>
+    <row r="389" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>899</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C389" s="3">
-        <v>69.968826608355698</v>
+      <c r="C389" s="2">
+        <v>69.959999999999994</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F389" s="2"/>
+    </row>
+    <row r="390" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>900</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C390" s="3">
-        <v>52.687397040061001</v>
+      <c r="C390" s="2">
+        <v>52.68</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F390" s="2"/>
+    </row>
+    <row r="391" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>901</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C391" s="3">
-        <v>60.052021518668397</v>
+      <c r="C391" s="2">
+        <v>60.05</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F391" s="2"/>
+    </row>
+    <row r="392" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>902</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C392" s="3">
-        <v>26.835972468885601</v>
+      <c r="C392" s="2">
+        <v>26.83</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F392" s="2"/>
+    </row>
+    <row r="393" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>903</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C393" s="3">
-        <v>72.761135443459906</v>
+      <c r="C393" s="2">
+        <v>72.760000000000005</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F393" s="2"/>
+    </row>
+    <row r="394" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>904</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C394" s="3">
-        <v>64.231291666306603</v>
+      <c r="C394" s="2">
+        <v>64.23</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F394" s="2"/>
+    </row>
+    <row r="395" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>905</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C395" s="3">
-        <v>40.3074443708812</v>
+      <c r="C395" s="2">
+        <v>40.299999999999997</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F395" s="2"/>
+    </row>
+    <row r="396" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>906</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C396" s="3">
-        <v>83.295363327328701</v>
+      <c r="C396" s="2">
+        <v>83.29</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F396" s="2"/>
+    </row>
+    <row r="397" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>907</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C397" s="3">
-        <v>64.681668527010402</v>
+      <c r="C397" s="2">
+        <v>64.680000000000007</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F397" s="2"/>
+    </row>
+    <row r="398" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>908</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C398" s="3">
-        <v>62.757816680062099</v>
+      <c r="C398" s="2">
+        <v>62.75</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F398" s="2"/>
+    </row>
+    <row r="399" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>909</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C399" s="3">
-        <v>56.626167626580703</v>
+      <c r="C399" s="2">
+        <v>56.62</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F399" s="2"/>
+    </row>
+    <row r="400" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>910</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C400" s="3">
-        <v>54.709476889222998</v>
+      <c r="C400" s="2">
+        <v>54.7</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F400" s="2"/>
+    </row>
+    <row r="401" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>911</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C401" s="3">
-        <v>33.590760568155503</v>
+      <c r="C401" s="2">
+        <v>33.590000000000003</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F401" s="2"/>
+    </row>
+    <row r="402" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>912</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C402" s="3">
-        <v>59.950719897245399</v>
+      <c r="C402" s="2">
+        <v>59.95</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F402" s="2"/>
+    </row>
+    <row r="403" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>913</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C403" s="3">
-        <v>70.646844213626807</v>
+      <c r="C403" s="2">
+        <v>70.64</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F403" s="2"/>
+    </row>
+    <row r="404" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>914</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C404" s="3">
-        <v>56.565487707727101</v>
+      <c r="C404" s="2">
+        <v>56.56</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F404" s="2"/>
+    </row>
+    <row r="405" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>915</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C405" s="3">
-        <v>35.9141566849678</v>
+      <c r="C405" s="2">
+        <v>35.909999999999997</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F405" s="2"/>
+    </row>
+    <row r="406" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>916</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C406" s="3">
-        <v>47.033737932055502</v>
+      <c r="C406" s="2">
+        <v>47.03</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F406" s="2"/>
+    </row>
+    <row r="407" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>917</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C407" s="3">
-        <v>57.6320190438719</v>
+      <c r="C407" s="2">
+        <v>57.63</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F407" s="2"/>
+    </row>
+    <row r="408" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>918</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C408" s="3">
-        <v>44.177293742997499</v>
+      <c r="C408" s="2">
+        <v>44.17</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F408" s="2"/>
+    </row>
+    <row r="409" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>919</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C409" s="3">
-        <v>42.562275646686302</v>
+      <c r="C409" s="2">
+        <v>42.56</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F409" s="2"/>
+    </row>
+    <row r="410" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>920</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C410" s="3">
-        <v>70.142675462204807</v>
+      <c r="C410" s="2">
+        <v>70.14</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F410" s="2"/>
+    </row>
+    <row r="411" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>921</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C411" s="3">
-        <v>81.286258559944898</v>
+      <c r="C411" s="2">
+        <v>81.28</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F411" s="2"/>
+    </row>
+    <row r="412" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>922</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C412" s="3">
-        <v>73.843866180516798</v>
+      <c r="C412" s="2">
+        <v>73.84</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F412" s="2"/>
+    </row>
+    <row r="413" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
         <v>923</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C413" s="3">
-        <v>57.113046544311402</v>
+      <c r="C413" s="2">
+        <v>57.11</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F413" s="2"/>
+    </row>
+    <row r="414" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>924</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C414" s="3">
-        <v>37.458567098042103</v>
+      <c r="C414" s="2">
+        <v>37.450000000000003</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F414" s="2"/>
+    </row>
+    <row r="415" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>925</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C415" s="3">
-        <v>81.585712899316604</v>
+      <c r="C415" s="2">
+        <v>81.58</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F415" s="2"/>
+    </row>
+    <row r="416" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>926</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C416" s="3">
-        <v>70.119431784575795</v>
+      <c r="C416" s="2">
+        <v>70.11</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F416" s="2"/>
+    </row>
+    <row r="417" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>927</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C417" s="3">
-        <v>37.926457528591399</v>
+      <c r="C417" s="2">
+        <v>37.92</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F417" s="2"/>
+    </row>
+    <row r="418" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>928</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C418" s="3">
-        <v>58.9327743034018</v>
+      <c r="C418" s="2">
+        <v>58.93</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F418" s="2"/>
+    </row>
+    <row r="419" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>929</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C419" s="3">
-        <v>45.8276315835069</v>
+      <c r="C419" s="2">
+        <v>45.82</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F419" s="2"/>
+    </row>
+    <row r="420" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>930</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C420" s="3">
-        <v>43.910174052980601</v>
+      <c r="C420" s="2">
+        <v>43.91</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F420" s="2"/>
+    </row>
+    <row r="421" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>931</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C421" s="3">
-        <v>68.958128252312903</v>
+      <c r="C421" s="2">
+        <v>68.95</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F421" s="2"/>
+    </row>
+    <row r="422" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>932</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C422" s="3">
-        <v>77.123172457761797</v>
+      <c r="C422" s="2">
+        <v>77.12</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F422" s="2"/>
+    </row>
+    <row r="423" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>933</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C423" s="3">
-        <v>66.875416580838206</v>
+      <c r="C423" s="2">
+        <v>66.87</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F423" s="2"/>
+    </row>
+    <row r="424" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>934</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C424" s="3">
-        <v>69.256366162392396</v>
+      <c r="C424" s="2">
+        <v>69.25</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F424" s="2"/>
+    </row>
+    <row r="425" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>935</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C425" s="3">
-        <v>61.188973994697101</v>
+      <c r="C425" s="2">
+        <v>61.18</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F425" s="2"/>
+    </row>
+    <row r="426" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>936</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C426" s="3">
-        <v>53.156136576146601</v>
+      <c r="C426" s="2">
+        <v>53.15</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F426" s="2"/>
+    </row>
+    <row r="427" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>937</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C427" s="3">
-        <v>58.702489587205299</v>
+      <c r="C427" s="2">
+        <v>58.7</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F427" s="2"/>
+    </row>
+    <row r="428" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>938</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C428" s="3">
-        <v>88.154030008576896</v>
+      <c r="C428" s="2">
+        <v>88.15</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F428" s="2"/>
+    </row>
+    <row r="429" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>939</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C429" s="3">
-        <v>55.640482393754603</v>
+      <c r="C429" s="2">
+        <v>55.64</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F429" s="2"/>
+    </row>
+    <row r="430" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>940</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C430" s="3">
-        <v>79.425241895535393</v>
+      <c r="C430" s="2">
+        <v>79.42</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F430" s="2"/>
+    </row>
+    <row r="431" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>941</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C431" s="3">
-        <v>48.845433510555999</v>
+      <c r="C431" s="2">
+        <v>48.84</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F431" s="2"/>
+    </row>
+    <row r="432" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>942</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C432" s="3">
-        <v>48.845433510555999</v>
+      <c r="C432" s="2">
+        <v>48.84</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F432" s="2"/>
+    </row>
+    <row r="433" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>943</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C433" s="3">
-        <v>65.553567372927105</v>
+      <c r="C433" s="2">
+        <v>65.55</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F433" s="2"/>
+    </row>
+    <row r="434" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>944</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C434" s="3">
-        <v>80.060327369736697</v>
+      <c r="C434" s="2">
+        <v>80.06</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F434" s="2"/>
+    </row>
+    <row r="435" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
         <v>945</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C435" s="3">
-        <v>82.404942088137005</v>
+      <c r="C435" s="2">
+        <v>82.4</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F435" s="2"/>
+    </row>
+    <row r="436" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>946</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C436" s="3">
-        <v>41.581595979895901</v>
+      <c r="C436" s="2">
+        <v>41.58</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F436" s="2"/>
+    </row>
+    <row r="437" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>947</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C437" s="3">
-        <v>53.929854249531402</v>
+      <c r="C437" s="2">
+        <v>53.92</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F437" s="2"/>
+    </row>
+    <row r="438" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>948</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C438" s="3">
-        <v>34.685108842829599</v>
+      <c r="C438" s="2">
+        <v>34.68</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F438" s="2"/>
+    </row>
+    <row r="439" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>949</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C439" s="3">
-        <v>30.76202501593</v>
+      <c r="C439" s="2">
+        <v>30.76</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F439" s="2"/>
+    </row>
+    <row r="440" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>950</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C440" s="3">
-        <v>58.842713365970198</v>
+      <c r="C440" s="2">
+        <v>58.84</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F440" s="2"/>
+    </row>
+    <row r="441" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>951</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C441" s="3">
-        <v>54.208414756147803</v>
+      <c r="C441" s="2">
+        <v>54.2</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F441" s="2"/>
+    </row>
+    <row r="442" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>952</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C442" s="3">
-        <v>59.4769348176577</v>
+      <c r="C442" s="2">
+        <v>59.47</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F442" s="2"/>
+    </row>
+    <row r="443" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>953</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C443" s="3">
-        <v>76.634339753031597</v>
+      <c r="C443" s="2">
+        <v>76.63</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F443" s="2"/>
+    </row>
+    <row r="444" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>954</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C444" s="3">
-        <v>46.733268620093902</v>
+      <c r="C444" s="2">
+        <v>46.73</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F444" s="2"/>
+    </row>
+    <row r="445" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>955</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C445" s="3">
-        <v>84.384494587061596</v>
+      <c r="C445" s="2">
+        <v>84.38</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F445" s="2"/>
+    </row>
+    <row r="446" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>956</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C446" s="3">
-        <v>59.033311972083098</v>
+      <c r="C446" s="2">
+        <v>59.03</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F446" s="2"/>
+    </row>
+    <row r="447" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>957</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C447" s="3">
-        <v>58.7107728568403</v>
+      <c r="C447" s="2">
+        <v>58.71</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F447" s="2"/>
+    </row>
+    <row r="448" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>958</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C448" s="3">
-        <v>74.598698948144204</v>
+      <c r="C448" s="2">
+        <v>74.59</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F448" s="2"/>
+    </row>
+    <row r="449" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>959</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C449" s="3">
-        <v>33.436259242329101</v>
+      <c r="C449" s="2">
+        <v>33.43</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F449" s="2"/>
+    </row>
+    <row r="450" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
         <v>960</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C450" s="3">
-        <v>71.799720309301193</v>
+      <c r="C450" s="2">
+        <v>71.790000000000006</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F450" s="2"/>
+    </row>
+    <row r="451" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
         <v>961</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C451" s="3">
-        <v>53.448561455601201</v>
+      <c r="C451" s="2">
+        <v>53.44</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F451" s="2"/>
+    </row>
+    <row r="452" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>962</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C452" s="3">
-        <v>81.683505987402796</v>
+      <c r="C452" s="2">
+        <v>81.680000000000007</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F452" s="2"/>
+    </row>
+    <row r="453" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>963</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C453" s="3">
-        <v>56.9101288141391</v>
+      <c r="C453" s="2">
+        <v>56.91</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F453" s="2"/>
+    </row>
+    <row r="454" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>964</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C454" s="3">
-        <v>69.348525705588202</v>
+      <c r="C454" s="2">
+        <v>69.34</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F454" s="2"/>
+    </row>
+    <row r="455" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>965</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C455" s="3">
-        <v>48.7496955281119</v>
+      <c r="C455" s="2">
+        <v>48.74</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F455" s="2"/>
+    </row>
+    <row r="456" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>966</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C456" s="3">
-        <v>42.831504628057097</v>
+      <c r="C456" s="2">
+        <v>42.83</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F456" s="2"/>
+    </row>
+    <row r="457" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
         <v>967</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C457" s="3">
-        <v>62.726885070826803</v>
+      <c r="C457" s="2">
+        <v>62.72</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F457" s="2"/>
+    </row>
+    <row r="458" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
         <v>968</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C458" s="3">
-        <v>62.9617547617733</v>
+      <c r="C458" s="2">
+        <v>62.96</v>
       </c>
       <c r="D458" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F458" s="2"/>
+    </row>
+    <row r="459" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
         <v>969</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C459" s="3">
-        <v>55.217510513433403</v>
+      <c r="C459" s="2">
+        <v>55.21</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F459" s="2"/>
+    </row>
+    <row r="460" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>970</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C460" s="3">
-        <v>54.153081470752802</v>
+      <c r="C460" s="2">
+        <v>54.15</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F460" s="2"/>
+    </row>
+    <row r="461" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
         <v>971</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C461" s="3">
-        <v>83.732135724134395</v>
+      <c r="C461" s="2">
+        <v>83.73</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F461" s="2"/>
+    </row>
+    <row r="462" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>972</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C462" s="3">
-        <v>79.799483933707904</v>
+      <c r="C462" s="2">
+        <v>79.790000000000006</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F462" s="2"/>
+    </row>
+    <row r="463" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>973</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C463" s="3">
-        <v>65.901504367349702</v>
+      <c r="C463" s="2">
+        <v>65.900000000000006</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F463" s="2"/>
+    </row>
+    <row r="464" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>974</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C464" s="3">
-        <v>59.982449429225099</v>
+      <c r="C464" s="2">
+        <v>59.98</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F464" s="2"/>
+    </row>
+    <row r="465" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>975</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C465" s="3">
-        <v>47.350716828582797</v>
+      <c r="C465" s="2">
+        <v>47.35</v>
       </c>
       <c r="D465" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F465" s="2"/>
+    </row>
+    <row r="466" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>976</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C466" s="3">
-        <v>47.350716828582797</v>
+      <c r="C466" s="2">
+        <v>47.35</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F466" s="2"/>
+    </row>
+    <row r="467" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>977</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C467" s="3">
-        <v>75.394694121032998</v>
+      <c r="C467" s="2">
+        <v>75.39</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F467" s="2"/>
+    </row>
+    <row r="468" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>978</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C468" s="3">
-        <v>44.897131878474497</v>
+      <c r="C468" s="2">
+        <v>44.89</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F468" s="2"/>
+    </row>
+    <row r="469" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
         <v>979</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C469" s="3">
-        <v>73.206746243221602</v>
+      <c r="C469" s="2">
+        <v>73.2</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F469" s="2"/>
+    </row>
+    <row r="470" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>980</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C470" s="3">
-        <v>83.503585706722603</v>
+      <c r="C470" s="2">
+        <v>83.5</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F470" s="2"/>
+    </row>
+    <row r="471" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>981</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C471" s="3">
-        <v>58.966984929072801</v>
+      <c r="C471" s="2">
+        <v>58.96</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F471" s="2"/>
+    </row>
+    <row r="472" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>982</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C472" s="3">
-        <v>59.950719897245399</v>
+      <c r="C472" s="2">
+        <v>59.95</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F472" s="2"/>
+    </row>
+    <row r="473" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
         <v>983</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C473" s="3">
-        <v>63.524559740505502</v>
+      <c r="C473" s="2">
+        <v>63.52</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F473" s="2"/>
+    </row>
+    <row r="474" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
         <v>984</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C474" s="3">
-        <v>32.592340450588601</v>
+      <c r="C474" s="2">
+        <v>32.590000000000003</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F474" s="2"/>
+    </row>
+    <row r="475" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
         <v>985</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C475" s="3">
-        <v>55.851206718399503</v>
+      <c r="C475" s="2">
+        <v>55.85</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F475" s="2"/>
+    </row>
+    <row r="476" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>986</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C476" s="3">
-        <v>66.468270043608001</v>
+      <c r="C476" s="2">
+        <v>66.459999999999994</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F476" s="2"/>
+    </row>
+    <row r="477" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C477" s="3">
-        <v>72.557944088749394</v>
+      <c r="C477" s="2">
+        <v>72.55</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F477" s="2"/>
+    </row>
+    <row r="478" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
         <v>988</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C478" s="3">
-        <v>69.127516134649497</v>
+      <c r="C478" s="2">
+        <v>69.12</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F478" s="2"/>
+    </row>
+    <row r="479" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
         <v>989</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C479" s="3">
-        <v>63.656067098374301</v>
+      <c r="C479" s="2">
+        <v>63.65</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F479" s="2"/>
+    </row>
+    <row r="480" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
         <v>990</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C480" s="3">
-        <v>18.021860613758399</v>
+      <c r="C480" s="2">
+        <v>18.02</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F480" s="2"/>
+    </row>
+    <row r="481" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>991</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C481" s="3">
-        <v>72.365325218511202</v>
+      <c r="C481" s="2">
+        <v>72.36</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F481" s="2"/>
+    </row>
+    <row r="482" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>992</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C482" s="3">
-        <v>61.837025528766397</v>
+      <c r="C482" s="2">
+        <v>61.83</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F482" s="2"/>
+    </row>
+    <row r="483" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>993</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C483" s="3">
-        <v>56.8928128582141</v>
+      <c r="C483" s="2">
+        <v>56.89</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F483" s="2"/>
+    </row>
+    <row r="484" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>994</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C484" s="3">
-        <v>66.892675976581103</v>
+      <c r="C484" s="2">
+        <v>66.89</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F484" s="2"/>
+    </row>
+    <row r="485" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>995</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C485" s="3">
-        <v>63.4699640581198</v>
+      <c r="C485" s="2">
+        <v>63.46</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F485" s="2"/>
+    </row>
+    <row r="486" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
         <v>996</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C486" s="3">
-        <v>75.725231194018207</v>
+      <c r="C486" s="2">
+        <v>75.72</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F486" s="2"/>
+    </row>
+    <row r="487" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
         <v>997</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C487" s="3">
-        <v>84.183538792546798</v>
+      <c r="C487" s="2">
+        <v>84.18</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F487" s="2"/>
+    </row>
+    <row r="488" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
         <v>998</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C488" s="3">
-        <v>31.492559373101201</v>
+      <c r="C488" s="2">
+        <v>31.49</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F488" s="2"/>
+    </row>
+    <row r="489" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
         <v>999</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C489" s="3">
-        <v>52.998769407888197</v>
+      <c r="C489" s="2">
+        <v>52.99</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F489" s="2"/>
+    </row>
+    <row r="490" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>1000</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C490" s="3">
-        <v>37.458567098042103</v>
+      <c r="C490" s="2">
+        <v>37.450000000000003</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F490" s="2"/>
+    </row>
+    <row r="491" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>1001</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C491" s="3">
-        <v>52.711517740419801</v>
+      <c r="C491" s="2">
+        <v>52.71</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F491" s="2"/>
+    </row>
+    <row r="492" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>1002</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C492" s="3">
-        <v>63.791093201008799</v>
+      <c r="C492" s="2">
+        <v>63.79</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F492" s="2"/>
+    </row>
+    <row r="493" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
         <v>1003</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C493" s="3">
-        <v>42.1739179463966</v>
+      <c r="C493" s="2">
+        <v>42.17</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F493" s="2"/>
+    </row>
+    <row r="494" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
         <v>1004</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C494" s="3">
-        <v>63.544265268617899</v>
+      <c r="C494" s="2">
+        <v>63.54</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F494" s="2"/>
+    </row>
+    <row r="495" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
         <v>1005</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C495" s="3">
-        <v>49.640727520343603</v>
+      <c r="C495" s="2">
+        <v>49.64</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F495" s="2"/>
+    </row>
+    <row r="496" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>1006</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C496" s="3">
-        <v>75.747123406530207</v>
+      <c r="C496" s="2">
+        <v>75.739999999999995</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F496" s="2"/>
+    </row>
+    <row r="497" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>1007</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C497" s="3">
-        <v>58.488881027609601</v>
+      <c r="C497" s="2">
+        <v>58.48</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F497" s="2"/>
+    </row>
+    <row r="498" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>1008</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C498" s="3">
-        <v>71.955545522824707</v>
+      <c r="C498" s="2">
+        <v>71.95</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F498" s="2"/>
+    </row>
+    <row r="499" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
         <v>1009</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C499" s="3">
-        <v>71.955545522824707</v>
+      <c r="C499" s="2">
+        <v>71.95</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F499" s="2"/>
+    </row>
+    <row r="500" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
         <v>1010</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C500" s="3">
-        <v>79.692499015659607</v>
+      <c r="C500" s="2">
+        <v>79.69</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F500" s="2"/>
+    </row>
+    <row r="501" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4" t="s">
         <v>1011</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C501" s="3">
-        <v>57.941996712128898</v>
+      <c r="C501" s="2">
+        <v>57.94</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F501" s="2"/>
+    </row>
+    <row r="502" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4" t="s">
         <v>1012</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C502" s="3">
-        <v>73.538136688187805</v>
+      <c r="C502" s="2">
+        <v>73.53</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F502" s="2"/>
+    </row>
+    <row r="503" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C503" s="3">
-        <v>53.613644072927798</v>
+      <c r="C503" s="2">
+        <v>53.61</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F503" s="2"/>
+    </row>
+    <row r="504" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C504" s="3">
-        <v>61.873425497704901</v>
+      <c r="C504" s="2">
+        <v>61.87</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="F504" s="2"/>
+    </row>
+    <row r="505" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4" t="s">
         <v>1015</v>
       </c>
@@ -10565,7 +11070,7 @@
       <c r="C505" s="3"/>
       <c r="D505" s="2"/>
     </row>
-    <row r="506" spans="1:4" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
         <v>1016</v>
       </c>
